--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="324" windowWidth="14340" windowHeight="4212" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -268,9 +273,6 @@
     <t>Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL.xlsx</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>April-2015</t>
   </si>
   <si>
@@ -281,12 +283,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,6 +512,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -554,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,9 +595,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,6 +647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,15 +846,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -840,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -854,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -868,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -896,16 +938,16 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -931,7 +973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -957,7 +999,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -978,7 +1020,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -999,7 +1041,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1020,7 +1062,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1083,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1062,7 +1104,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1125,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1104,7 +1146,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1125,7 +1167,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -1146,7 +1188,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -1167,7 +1209,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
@@ -1188,7 +1230,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>46</v>
       </c>
@@ -1209,7 +1251,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
@@ -1230,7 +1272,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>48</v>
       </c>
@@ -1251,7 +1293,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>49</v>
       </c>
@@ -1272,7 +1314,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
@@ -1293,7 +1335,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
@@ -1314,7 +1356,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -1334,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>64</v>
       </c>
@@ -1354,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -1374,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
@@ -1434,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -1454,7 +1496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>65</v>
       </c>
@@ -1474,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
@@ -1494,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -1514,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -1534,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>60</v>
       </c>
@@ -1554,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
@@ -1574,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>62</v>
       </c>
@@ -1594,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>63</v>
       </c>
@@ -1624,27 +1666,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C34"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" style="23" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5546875" style="23" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.6640625" style="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.44140625" style="23" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.88671875" style="23" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.77734375" style="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.44140625" style="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.5703125" style="23" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5703125" style="23" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="23" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" style="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" style="23" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="43" style="23" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.109375" style="23" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.77734375" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5546875" style="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.88671875" style="23" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" style="23" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" style="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.85546875" style="23" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
@@ -1685,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>78</v>
       </c>
@@ -1693,13 +1735,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>82</v>
@@ -1708,7 +1750,7 @@
         <v>79</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>80</v>
@@ -1720,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>78</v>
       </c>
@@ -1728,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>82</v>
@@ -1743,7 +1785,7 @@
         <v>79</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>80</v>
@@ -1757,7 +1799,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>78</v>
       </c>
@@ -1765,13 +1807,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>82</v>
@@ -1780,7 +1822,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>80</v>
@@ -1794,7 +1836,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>78</v>
       </c>
@@ -1802,13 +1844,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>82</v>
@@ -1817,7 +1859,7 @@
         <v>79</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>80</v>
@@ -1831,7 +1873,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>78</v>
       </c>
@@ -1839,13 +1881,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>82</v>
@@ -1854,7 +1896,7 @@
         <v>79</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>80</v>
@@ -1868,7 +1910,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>78</v>
       </c>
@@ -1876,13 +1918,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>82</v>
@@ -1891,7 +1933,7 @@
         <v>79</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>80</v>
@@ -1905,7 +1947,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>78</v>
       </c>
@@ -1913,13 +1955,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>82</v>
@@ -1928,7 +1970,7 @@
         <v>79</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>80</v>
@@ -1942,7 +1984,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>78</v>
       </c>
@@ -1950,13 +1992,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>82</v>
@@ -1965,7 +2007,7 @@
         <v>79</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>80</v>
@@ -1979,7 +2021,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>78</v>
       </c>
@@ -1987,13 +2029,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>82</v>
@@ -2002,7 +2044,7 @@
         <v>79</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>80</v>
@@ -2016,7 +2058,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>78</v>
       </c>
@@ -2024,13 +2066,13 @@
         <v>29</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>82</v>
@@ -2039,7 +2081,7 @@
         <v>79</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>80</v>
@@ -2053,7 +2095,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>78</v>
       </c>
@@ -2061,13 +2103,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>82</v>
@@ -2076,7 +2118,7 @@
         <v>79</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>80</v>
@@ -2090,7 +2132,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>78</v>
       </c>
@@ -2098,13 +2140,13 @@
         <v>44</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>82</v>
@@ -2113,7 +2155,7 @@
         <v>79</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>80</v>
@@ -2127,7 +2169,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>78</v>
       </c>
@@ -2135,13 +2177,13 @@
         <v>45</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>82</v>
@@ -2150,7 +2192,7 @@
         <v>79</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>80</v>
@@ -2164,7 +2206,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>78</v>
       </c>
@@ -2172,13 +2214,13 @@
         <v>46</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>82</v>
@@ -2187,7 +2229,7 @@
         <v>79</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>80</v>
@@ -2201,7 +2243,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>78</v>
       </c>
@@ -2209,13 +2251,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>82</v>
@@ -2224,7 +2266,7 @@
         <v>79</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>80</v>
@@ -2238,7 +2280,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>78</v>
       </c>
@@ -2246,13 +2288,13 @@
         <v>48</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>82</v>
@@ -2261,7 +2303,7 @@
         <v>79</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>80</v>
@@ -2275,7 +2317,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>78</v>
       </c>
@@ -2283,13 +2325,13 @@
         <v>49</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>82</v>
@@ -2298,7 +2340,7 @@
         <v>79</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>80</v>
@@ -2312,7 +2354,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>78</v>
       </c>
@@ -2320,13 +2362,13 @@
         <v>50</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>82</v>
@@ -2335,7 +2377,7 @@
         <v>79</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>80</v>
@@ -2349,7 +2391,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>78</v>
       </c>
@@ -2357,13 +2399,13 @@
         <v>51</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>82</v>
@@ -2372,7 +2414,7 @@
         <v>79</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>80</v>
@@ -2386,7 +2428,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>78</v>
       </c>
@@ -2394,13 +2436,13 @@
         <v>52</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>82</v>
@@ -2409,7 +2451,7 @@
         <v>79</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I21" s="24" t="s">
         <v>80</v>
@@ -2423,7 +2465,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>78</v>
       </c>
@@ -2431,13 +2473,13 @@
         <v>53</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>82</v>
@@ -2446,7 +2488,7 @@
         <v>79</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>80</v>
@@ -2460,7 +2502,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>78</v>
       </c>
@@ -2468,13 +2510,13 @@
         <v>54</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>82</v>
@@ -2483,7 +2525,7 @@
         <v>79</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>80</v>
@@ -2497,7 +2539,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>78</v>
       </c>
@@ -2505,13 +2547,13 @@
         <v>55</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>82</v>
@@ -2520,7 +2562,7 @@
         <v>79</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>80</v>
@@ -2534,7 +2576,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>78</v>
       </c>
@@ -2542,13 +2584,13 @@
         <v>56</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>82</v>
@@ -2557,7 +2599,7 @@
         <v>79</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>80</v>
@@ -2571,7 +2613,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>78</v>
       </c>
@@ -2579,13 +2621,13 @@
         <v>57</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>82</v>
@@ -2594,7 +2636,7 @@
         <v>79</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I26" s="24" t="s">
         <v>80</v>
@@ -2608,7 +2650,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>78</v>
       </c>
@@ -2616,13 +2658,13 @@
         <v>58</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>82</v>
@@ -2631,7 +2673,7 @@
         <v>79</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I27" s="24" t="s">
         <v>80</v>
@@ -2645,7 +2687,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>78</v>
       </c>
@@ -2653,13 +2695,13 @@
         <v>59</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>82</v>
@@ -2668,7 +2710,7 @@
         <v>79</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>80</v>
@@ -2682,7 +2724,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>78</v>
       </c>
@@ -2690,13 +2732,13 @@
         <v>60</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>82</v>
@@ -2705,7 +2747,7 @@
         <v>79</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>80</v>
@@ -2719,7 +2761,7 @@
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
     </row>
-    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>78</v>
       </c>
@@ -2727,13 +2769,13 @@
         <v>61</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>82</v>
@@ -2742,7 +2784,7 @@
         <v>79</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I30" s="24" t="s">
         <v>80</v>
@@ -2756,7 +2798,7 @@
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>78</v>
       </c>
@@ -2764,13 +2806,13 @@
         <v>62</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>82</v>
@@ -2779,7 +2821,7 @@
         <v>79</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>80</v>
@@ -2793,7 +2835,7 @@
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>78</v>
       </c>
@@ -2801,13 +2843,13 @@
         <v>63</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>82</v>
@@ -2816,7 +2858,7 @@
         <v>79</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>80</v>
@@ -2830,7 +2872,7 @@
       <c r="L32" s="26"/>
       <c r="M32" s="26"/>
     </row>
-    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>78</v>
       </c>
@@ -2838,13 +2880,13 @@
         <v>64</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>82</v>
@@ -2853,7 +2895,7 @@
         <v>79</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I33" s="24" t="s">
         <v>80</v>
@@ -2867,7 +2909,7 @@
       <c r="L33" s="26"/>
       <c r="M33" s="26"/>
     </row>
-    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>78</v>
       </c>
@@ -2875,13 +2917,13 @@
         <v>65</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>82</v>
@@ -2890,7 +2932,7 @@
         <v>79</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I34" s="24" t="s">
         <v>80</v>
@@ -2914,23 +2956,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
@@ -2971,7 +3013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>78</v>
       </c>
@@ -2979,25 +3021,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>81</v>
